--- a/data/trans_bre/P7B_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P7B_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,81</t>
+          <t>12,49</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,01</t>
+          <t>13,46</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>13,64</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>11,83</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>43,93%</t>
+          <t>70,72%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-13,65%</t>
+          <t>80,52%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,64%</t>
+          <t>78,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-7,85%</t>
+          <t>72,8%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 16,13</t>
+          <t>-5,85; 31,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-26,63; 10,42</t>
+          <t>-5,25; 32,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,56; 11,02</t>
+          <t>-5,05; 33,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,31; 9,73</t>
+          <t>-6,47; 31,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-23,64; 204,79</t>
+          <t>-25,38; 341,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-67,14; 91,32</t>
+          <t>-20,3; 409,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-52,33; 100,85</t>
+          <t>-25,06; 531,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-57,1; 97,39</t>
+          <t>-30,11; 548,01</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,74</t>
+          <t>9,57</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,48</t>
+          <t>9,65</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,12</t>
+          <t>10,7</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,6</t>
+          <t>8,6</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>17,09%</t>
+          <t>30,73%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>21,89%</t>
+          <t>30,48%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>24,51%</t>
+          <t>35,35%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>19,51%</t>
+          <t>26,79%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 13,96</t>
+          <t>-5,71; 20,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 16,11</t>
+          <t>-6,88; 20,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 17,09</t>
+          <t>-2,11; 22,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 15,89</t>
+          <t>-4,91; 19,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-9,35; 49,6</t>
+          <t>-16,02; 83,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 56,68</t>
+          <t>-19,18; 81,1</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 61,57</t>
+          <t>-7,11; 93,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-11,35; 55,69</t>
+          <t>-14,08; 78,51</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,08</t>
+          <t>9,37</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,02</t>
+          <t>10,74</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,31</t>
+          <t>10,1</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,39</t>
+          <t>10,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>18,86%</t>
+          <t>24,26%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>20,92%</t>
+          <t>27,96%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>25,75%</t>
+          <t>26,41%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>29,42%</t>
+          <t>26,53%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 16,0</t>
+          <t>-3,39; 20,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 17,42</t>
+          <t>-2,02; 22,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 19,13</t>
+          <t>-2,23; 21,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,69; 20,32</t>
+          <t>-2,7; 20,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 49,66</t>
+          <t>-7,56; 65,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 52,84</t>
+          <t>-4,33; 73,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 60,58</t>
+          <t>-6,03; 66,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,94; 65,78</t>
+          <t>-6,13; 66,01</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,08</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,79</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,6</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,53</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>20,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17,53%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,48 +968,156 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,28; 11,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,18; 12,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,71; 12,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 11,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,73; 41,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 42,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,05; 43,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 41,05</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>10,17</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>11,0</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>11,23</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>9,87</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>31,64%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>34,36%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>35,72%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>31,08%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1,42; 16,94</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2,08; 17,96</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2,47; 18,24</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0,82; 17,45</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3,41; 60,51</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>4,57; 66,21</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>5,73; 67,97</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1,74; 65,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>

--- a/data/trans_bre/P7B_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P7B_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>12,49</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>13,46</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>13,64</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>11,83</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>70,72%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>80,52%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>78,0%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>72,8%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>12.49040672278399</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>11.46138512916628</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>9.375187995716102</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>7.708566234118944</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.7072462234718431</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.6099658737749845</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.4542378765416962</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.4009047121357578</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-5,85; 31,14</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-5,25; 32,19</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-5,05; 33,33</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-6,47; 31,09</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-25,38; 341,77</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-20,3; 409,48</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-25,06; 531,55</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-30,11; 548,01</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-5.85124048355762</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-7.99908961407509</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-10.98984335040375</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-12.29196304400024</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.2537985249571472</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.2957730997900372</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.4150172294951311</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.4380839539039699</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>31.14188972008983</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>30.46578356421684</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>28.97822626294723</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>27.12483937206025</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>3.417691563885935</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>3.347829720223826</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>3.342208023188124</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>4.140230573109833</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>9,57</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>9,65</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>10,7</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>8,6</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>30,73%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>30,48%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>35,35%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>26,79%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-5,71; 20,6</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-6,88; 20,94</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-2,11; 22,04</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-4,91; 19,98</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-16,02; 83,26</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-19,18; 81,1</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-7,11; 93,43</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-14,08; 78,51</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>9.572002145937203</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>10.12498635198165</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>11.51450515185278</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>9.618935204307572</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.3073277345768063</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.3248861574674979</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.3805029945814912</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.2994280458094561</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>9,37</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>10,74</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>10,1</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>10,0</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>24,26%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>27,96%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>26,41%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>26,53%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-5.70938419713785</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-5.785865691583324</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.05256282612923188</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-3.237388460211422</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.1602212320612367</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.1545142561243436</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.006009785902467826</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.102659973429178</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-3,39; 20,53</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-2,02; 22,15</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-2,23; 21,66</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-2,7; 20,98</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-7,56; 65,78</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-4,33; 73,27</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-6,03; 66,81</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-6,13; 66,01</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>20.60205522137747</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>20.95507782888183</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>22.8785495830173</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>21.31632240183402</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.8326491713037323</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.8235779438674755</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.9828620210171409</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.8446300670295097</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +827,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>9.373953522551293</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>12.6747643831405</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>11.28954335425926</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>11.05587931842508</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.2425882673426722</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.3411739092867995</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.3001846129696007</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.2956843969974953</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-3.39182597241617</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.8385779890726703</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-1.610699984388213</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-1.490384136984075</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.07557996884162332</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.02672044553477552</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.03490499708258472</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.03648233164103509</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>20.5293759163715</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>24.71351192554683</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>22.82701890521939</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>22.23441724492912</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.6578032529571991</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.8349276666300365</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.7496507285487441</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.7086341066308326</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>10,17</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>11,0</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>11,23</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>9,87</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>31,64%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>34,36%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>35,72%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>31,08%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>1,42; 16,94</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>2,08; 17,96</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>2,47; 18,24</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>0,82; 17,45</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>3,41; 60,51</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>4,57; 66,21</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>5,73; 67,97</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>1,74; 65,45</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>10.16880975849385</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>11.51521847228636</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>11.29343213263337</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>9.899959730629016</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.3164085907406091</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.362728424843318</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.3564028406674921</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.3078467080221103</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>1.417967656085331</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>1.944508343746828</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>2.518819183686897</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.3830475350122456</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.03410327574101233</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.05740921887410996</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.06347890072225777</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.007849589395476262</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>16.94460923008631</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>18.50723378480081</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>18.13484847050765</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>17.40604570837083</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.605116034883787</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.6997824166856714</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.6744460178796456</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.6530890210643888</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
